--- a/docs/resources/4/spring_2024_2025_ge1_erotima1.xlsx
+++ b/docs/resources/4/spring_2024_2025_ge1_erotima1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoioannina-my.sharepoint.com/personal/cgogos_uoi_gr/Documents/04-ΕΑΠ (MSc ΔΗΜΟΣΙΑ ΔΙΟΙΚΗΣΗ ΚΑΙ ΗΛΕΚΤΡΟΝΙΚΗ ΔΙΑΚΥΒΕΡΝΗΣΗ)/ΔΜΔ54 - ΠΣΗΔ/2024-2025Β (ΕΑΡΙΝΟ ΕΞΑΜΗΝΟ)/ΓΡΑΠΤΕΣ ΕΡΓΑΣΙΕΣ/ΓΕ1/ΛΥΣΕΙΣ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{51B52C96-6BD4-EB41-8F98-5A5FF9A1FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C672C405-FFD9-BC4C-B708-4A0AA9CAFFDF}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{51B52C96-6BD4-EB41-8F98-5A5FF9A1FB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{341CD738-D44C-F740-ADAC-83FB895782B6}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="33800" windowHeight="28300" xr2:uid="{DA712E73-1CCD-FF4F-B52F-065C3B2ADC62}"/>
+    <workbookView xWindow="26120" yWindow="500" windowWidth="25080" windowHeight="28300" xr2:uid="{DA712E73-1CCD-FF4F-B52F-065C3B2ADC62}"/>
   </bookViews>
   <sheets>
     <sheet name="ΓΕ1-I + ΓΕ1-II-1" sheetId="1" r:id="rId1"/>
@@ -902,6 +902,8 @@
         <c:axId val="243897616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="700"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2282,12 +2284,12 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="el-GR" sz="1100" kern="1200">
+            <a:rPr lang="en-US" sz="1100" kern="1200">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10</a:t>
+            <a:t>27</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" kern="1200" baseline="0">
@@ -2462,12 +2464,12 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="el-GR" sz="1100" kern="1200">
+            <a:rPr lang="en-US" sz="1100" kern="1200">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>27</a:t>
+            <a:t>10 </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="el-GR" sz="1100" kern="1200" baseline="0">
@@ -2475,7 +2477,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> εργαζόμενοι</a:t>
+            <a:t>εργαζόμενοι</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100" kern="1200">
             <a:solidFill>
@@ -2788,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389246F3-56A6-4B48-913F-2D209C044945}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3093,7 +3095,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3109,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>42509.831102350989</v>
+        <v>5440.4248050352726</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3118,7 +3120,7 @@
       </c>
       <c r="B2" s="1">
         <f>B1/1000</f>
-        <v>42.509831102350986</v>
+        <v>5.4404248050352724</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3207,15 +3209,15 @@
       </c>
       <c r="B10" s="2">
         <f>B5*$B$2^C5</f>
-        <v>123.0623177017039</v>
+        <v>14.211034519600032</v>
       </c>
       <c r="C10" s="2">
         <f>D5*B10^E5</f>
-        <v>15.566376948583793</v>
+        <v>6.8539001397378652</v>
       </c>
       <c r="D10" s="2">
         <f>B10/C10</f>
-        <v>7.9056493433367576</v>
+        <v>2.0734230481717448</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3224,15 +3226,15 @@
       </c>
       <c r="B11" s="2">
         <f>B6*$B$2^C6</f>
-        <v>199.99970713294286</v>
+        <v>20.000000394633197</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:C12" si="0">D6*B11^E6</f>
-        <v>15.969829687586666</v>
+        <v>7.133464596180672</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11:D12" si="1">B11/C11</f>
-        <v>12.523596747459521</v>
+        <v>2.803686781503254</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3241,15 +3243,15 @@
       </c>
       <c r="B12" s="2">
         <f>B7*$B$2^C7</f>
-        <v>323.95878099383623</v>
+        <v>27.482856817703183</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>15.89632490101045</v>
+        <v>7.2183811250936589</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>20.379476577837423</v>
+        <v>3.8073435499495867</v>
       </c>
     </row>
   </sheetData>
